--- a/database/industries/darou/desobhan/product/quarterly.xlsx
+++ b/database/industries/darou/desobhan/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150C4D10-9C13-4063-92F3-0D03081C40F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F05B76-8E9A-4FA3-B4F4-30A75031B8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>کپسول</t>
@@ -629,12 +629,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -649,7 +649,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -698,7 +698,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +747,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -799,7 +799,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -822,23 +822,23 @@
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
+      <c r="J10" s="9">
+        <v>38501</v>
       </c>
       <c r="K10" s="9">
-        <v>38501</v>
+        <v>38559</v>
       </c>
       <c r="L10" s="9">
-        <v>38559</v>
+        <v>36501</v>
       </c>
       <c r="M10" s="9">
-        <v>36501</v>
+        <v>29536</v>
       </c>
       <c r="N10" s="9">
-        <v>29536</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -847,23 +847,23 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>20451</v>
+        <v>25310</v>
       </c>
       <c r="F11" s="11">
-        <v>25310</v>
-      </c>
-      <c r="G11" s="11">
         <v>104077</v>
       </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="11">
         <v>39785</v>
       </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="11" t="s">
         <v>17</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -894,12 +894,12 @@
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H12" s="9">
         <v>61684</v>
       </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
@@ -916,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -931,17 +931,17 @@
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>17</v>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -976,11 +976,11 @@
       <c r="I14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>17</v>
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>880937</v>
-      </c>
-      <c r="F15" s="11">
         <v>879367</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="11">
         <v>1656850</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
@@ -1051,15 +1051,15 @@
       <c r="H16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>17</v>
+      <c r="I16" s="9">
+        <v>920959</v>
       </c>
       <c r="J16" s="9">
-        <v>920959</v>
-      </c>
-      <c r="K16" s="9">
         <v>889585</v>
       </c>
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1093,23 +1093,23 @@
       <c r="I17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>17</v>
+      <c r="J17" s="11">
+        <v>245</v>
       </c>
       <c r="K17" s="11">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="L17" s="11">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="M17" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17" s="11">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1118,23 +1118,23 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="F18" s="9">
-        <v>173</v>
+        <v>876</v>
       </c>
       <c r="G18" s="9">
-        <v>876</v>
-      </c>
-      <c r="H18" s="9">
         <v>144</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9">
         <v>392</v>
       </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -1165,12 +1165,12 @@
       <c r="G19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="H19" s="11">
         <v>327</v>
       </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J19" s="11" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1198,15 +1198,15 @@
       <c r="E20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
+      <c r="F20" s="9">
+        <v>3246123</v>
       </c>
       <c r="G20" s="9">
-        <v>3246123</v>
-      </c>
-      <c r="H20" s="9">
         <v>862790</v>
       </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="9" t="s">
         <v>17</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1241,14 +1241,14 @@
       <c r="G21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>17</v>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
       </c>
       <c r="K21" s="11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1274,12 +1274,12 @@
       <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="9">
         <v>9752</v>
       </c>
+      <c r="G22" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" s="9" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1325,23 +1325,23 @@
       <c r="I23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>17</v>
+      <c r="J23" s="11">
+        <v>2498</v>
       </c>
       <c r="K23" s="11">
-        <v>2498</v>
+        <v>2576</v>
       </c>
       <c r="L23" s="11">
-        <v>2576</v>
+        <v>2132</v>
       </c>
       <c r="M23" s="11">
-        <v>2132</v>
+        <v>3379</v>
       </c>
       <c r="N23" s="11">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
@@ -1350,20 +1350,20 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
-        <v>2836</v>
-      </c>
-      <c r="F24" s="9">
         <v>2318</v>
       </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="H24" s="9">
         <v>4713</v>
       </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J24" s="9" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1400,12 +1400,12 @@
       <c r="H25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="I25" s="11">
         <v>2591</v>
       </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K25" s="11" t="s">
         <v>17</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
@@ -1445,57 +1445,57 @@
       <c r="J26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>17</v>
+      <c r="K26" s="9">
+        <v>879094</v>
       </c>
       <c r="L26" s="9">
-        <v>879094</v>
+        <v>842781</v>
       </c>
       <c r="M26" s="9">
-        <v>842781</v>
+        <v>1173827</v>
       </c>
       <c r="N26" s="9">
-        <v>1173827</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1036086</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>904525</v>
+        <v>907168</v>
       </c>
       <c r="F27" s="13">
-        <v>907168</v>
+        <v>3360828</v>
       </c>
       <c r="G27" s="13">
-        <v>3360828</v>
+        <v>862934</v>
       </c>
       <c r="H27" s="13">
-        <v>862934</v>
+        <v>1723574</v>
       </c>
       <c r="I27" s="13">
-        <v>1723574</v>
+        <v>963727</v>
       </c>
       <c r="J27" s="13">
-        <v>963727</v>
+        <v>930829</v>
       </c>
       <c r="K27" s="13">
-        <v>930829</v>
+        <v>920519</v>
       </c>
       <c r="L27" s="13">
-        <v>920519</v>
+        <v>881473</v>
       </c>
       <c r="M27" s="13">
-        <v>881473</v>
+        <v>1206800</v>
       </c>
       <c r="N27" s="13">
-        <v>1206800</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1056349</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1510,7 +1510,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1525,7 +1525,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1592,7 +1592,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
@@ -1601,37 +1601,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>24003</v>
+        <v>24046</v>
       </c>
       <c r="F33" s="9">
-        <v>24046</v>
+        <v>25132</v>
       </c>
       <c r="G33" s="9">
-        <v>25132</v>
-      </c>
-      <c r="H33" s="9">
         <v>23866</v>
       </c>
+      <c r="H33" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I33" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>17</v>
+      <c r="K33" s="9">
+        <v>34913</v>
       </c>
       <c r="L33" s="9">
-        <v>34913</v>
+        <v>37300</v>
       </c>
       <c r="M33" s="9">
-        <v>37300</v>
+        <v>28762</v>
       </c>
       <c r="N33" s="9">
-        <v>28762</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14766</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
@@ -1648,12 +1648,12 @@
       <c r="G34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="H34" s="11">
         <v>36995</v>
       </c>
+      <c r="I34" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J34" s="11" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -1688,12 +1688,12 @@
       <c r="H35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="I35" s="9">
         <v>38340</v>
       </c>
+      <c r="J35" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K35" s="9" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1722,17 +1722,17 @@
       <c r="G36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>17</v>
+      <c r="H36" s="11">
+        <v>0</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
       </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>17</v>
+      <c r="J36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>20</v>
       </c>
@@ -1758,8 +1758,8 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>17</v>
@@ -1783,7 +1783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>21</v>
       </c>
@@ -1792,26 +1792,26 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>895868</v>
+        <v>876301</v>
       </c>
       <c r="F38" s="11">
-        <v>876301</v>
+        <v>928853</v>
       </c>
       <c r="G38" s="11">
-        <v>928853</v>
-      </c>
-      <c r="H38" s="11">
         <v>854844</v>
       </c>
+      <c r="H38" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="11">
+      <c r="J38" s="11">
         <v>893410</v>
       </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L38" s="11" t="s">
         <v>17</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
@@ -1839,12 +1839,12 @@
       <c r="G39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="H39" s="9">
         <v>838244</v>
       </c>
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J39" s="9" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1879,12 +1879,12 @@
       <c r="H40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="I40" s="11">
         <v>882233</v>
       </c>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K40" s="11" t="s">
         <v>17</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
@@ -1907,37 +1907,37 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="F41" s="9">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G41" s="9">
-        <v>179</v>
-      </c>
-      <c r="H41" s="9">
         <v>144</v>
       </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I41" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
+      <c r="K41" s="9">
+        <v>355</v>
       </c>
       <c r="L41" s="9">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="M41" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N41" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>22</v>
       </c>
@@ -1954,12 +1954,12 @@
       <c r="G42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="11">
+      <c r="H42" s="11">
         <v>362</v>
       </c>
+      <c r="I42" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J42" s="11" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
@@ -1994,12 +1994,12 @@
       <c r="H43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="9">
+      <c r="I43" s="9">
         <v>386</v>
       </c>
+      <c r="J43" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K43" s="9" t="s">
         <v>17</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>35</v>
       </c>
@@ -2027,8 +2027,8 @@
       <c r="F44" s="11">
         <v>0</v>
       </c>
-      <c r="G44" s="11">
-        <v>0</v>
+      <c r="G44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>17</v>
@@ -2052,7 +2052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
@@ -2103,20 +2103,20 @@
       <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0</v>
+      <c r="G46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>17</v>
+      <c r="K46" s="11">
+        <v>0</v>
       </c>
       <c r="L46" s="11">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>27</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>37</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -2230,20 +2230,20 @@
       <c r="J49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>17</v>
+      <c r="K49" s="9">
+        <v>2136</v>
       </c>
       <c r="L49" s="9">
-        <v>2136</v>
+        <v>1568</v>
       </c>
       <c r="M49" s="9">
-        <v>1568</v>
+        <v>3451</v>
       </c>
       <c r="N49" s="9">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>2948</v>
+        <v>2497</v>
       </c>
       <c r="F50" s="11">
-        <v>2497</v>
+        <v>2112</v>
       </c>
       <c r="G50" s="11">
-        <v>2112</v>
-      </c>
-      <c r="H50" s="11">
         <v>2614</v>
       </c>
+      <c r="H50" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I50" s="11" t="s">
         <v>17</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2299,12 +2299,12 @@
       <c r="G51" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="9">
+      <c r="H51" s="9">
         <v>2161</v>
       </c>
+      <c r="I51" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J51" s="9" t="s">
         <v>17</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>29</v>
       </c>
@@ -2339,12 +2339,12 @@
       <c r="H52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="11">
+      <c r="I52" s="11">
         <v>2401</v>
       </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K52" s="11" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
@@ -2384,57 +2384,57 @@
       <c r="J53" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>17</v>
+      <c r="K53" s="9">
+        <v>863861</v>
       </c>
       <c r="L53" s="9">
-        <v>863861</v>
+        <v>758681</v>
       </c>
       <c r="M53" s="9">
-        <v>758681</v>
+        <v>1177714</v>
       </c>
       <c r="N53" s="9">
-        <v>1177714</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>819505</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>923091</v>
+        <v>903044</v>
       </c>
       <c r="F54" s="13">
-        <v>903044</v>
+        <v>956276</v>
       </c>
       <c r="G54" s="13">
-        <v>956276</v>
+        <v>881468</v>
       </c>
       <c r="H54" s="13">
-        <v>881468</v>
+        <v>877762</v>
       </c>
       <c r="I54" s="13">
-        <v>877762</v>
+        <v>923360</v>
       </c>
       <c r="J54" s="13">
-        <v>923360</v>
+        <v>893410</v>
       </c>
       <c r="K54" s="13">
-        <v>893410</v>
+        <v>901265</v>
       </c>
       <c r="L54" s="13">
-        <v>901265</v>
+        <v>797608</v>
       </c>
       <c r="M54" s="13">
-        <v>797608</v>
+        <v>1209985</v>
       </c>
       <c r="N54" s="13">
-        <v>1209985</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>836592</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2449,7 +2449,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2464,7 +2464,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2479,7 +2479,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>38</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2531,7 +2531,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>15</v>
       </c>
@@ -2540,37 +2540,37 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>60334</v>
+        <v>76419</v>
       </c>
       <c r="F60" s="9">
-        <v>76419</v>
+        <v>53923</v>
       </c>
       <c r="G60" s="9">
-        <v>53923</v>
+        <v>70108</v>
       </c>
       <c r="H60" s="9">
-        <v>70108</v>
+        <v>136585</v>
       </c>
       <c r="I60" s="9">
-        <v>136585</v>
-      </c>
-      <c r="J60" s="9">
         <v>145086</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>17</v>
+      <c r="J60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="9">
+        <v>136456</v>
       </c>
       <c r="L60" s="9">
-        <v>136456</v>
+        <v>226121</v>
       </c>
       <c r="M60" s="9">
-        <v>226121</v>
+        <v>193485</v>
       </c>
       <c r="N60" s="9">
-        <v>193485</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119473</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -2579,37 +2579,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>6261</v>
+        <v>-6917</v>
       </c>
       <c r="F61" s="11">
-        <v>-6917</v>
-      </c>
-      <c r="G61" s="11">
         <v>15899</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>17</v>
+      <c r="G61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="11">
+        <v>579</v>
       </c>
       <c r="I61" s="11">
-        <v>579</v>
-      </c>
-      <c r="J61" s="11">
         <v>9112</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>17</v>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
       </c>
       <c r="L61" s="11">
-        <v>0</v>
+        <v>16764</v>
       </c>
       <c r="M61" s="11">
-        <v>16764</v>
+        <v>-16764</v>
       </c>
       <c r="N61" s="11">
-        <v>-16764</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27432</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>21</v>
       </c>
@@ -2618,26 +2618,26 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>1354800</v>
+        <v>1575846</v>
       </c>
       <c r="F62" s="9">
-        <v>1575846</v>
+        <v>1443556</v>
       </c>
       <c r="G62" s="9">
-        <v>1443556</v>
+        <v>1363635</v>
       </c>
       <c r="H62" s="9">
-        <v>1363635</v>
+        <v>1433088</v>
       </c>
       <c r="I62" s="9">
-        <v>1433088</v>
+        <v>1791186</v>
       </c>
       <c r="J62" s="9">
-        <v>1791186</v>
-      </c>
-      <c r="K62" s="9">
         <v>1335131</v>
       </c>
+      <c r="K62" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L62" s="9" t="s">
         <v>17</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>22</v>
       </c>
@@ -2657,37 +2657,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>49891</v>
+        <v>32383</v>
       </c>
       <c r="F63" s="11">
-        <v>32383</v>
+        <v>6545</v>
       </c>
       <c r="G63" s="11">
-        <v>6545</v>
+        <v>23899</v>
       </c>
       <c r="H63" s="11">
-        <v>23899</v>
+        <v>112850</v>
       </c>
       <c r="I63" s="11">
-        <v>112850</v>
-      </c>
-      <c r="J63" s="11">
         <v>3870</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>17</v>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="11">
+        <v>21530</v>
       </c>
       <c r="L63" s="11">
-        <v>21530</v>
+        <v>-118</v>
       </c>
       <c r="M63" s="11">
-        <v>-118</v>
+        <v>22090</v>
       </c>
       <c r="N63" s="11">
-        <v>22090</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2181</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>35</v>
       </c>
@@ -2701,8 +2701,8 @@
       <c r="F64" s="9">
         <v>0</v>
       </c>
-      <c r="G64" s="9">
-        <v>0</v>
+      <c r="G64" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>17</v>
@@ -2726,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>26</v>
       </c>
@@ -2779,20 +2779,20 @@
       <c r="F66" s="9">
         <v>0</v>
       </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
+      <c r="G66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>17</v>
+      <c r="K66" s="9">
+        <v>0</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>27</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>37</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>29</v>
       </c>
@@ -2891,37 +2891,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>100944</v>
+        <v>110589</v>
       </c>
       <c r="F69" s="11">
-        <v>110589</v>
+        <v>128636</v>
       </c>
       <c r="G69" s="11">
-        <v>128636</v>
+        <v>185478</v>
       </c>
       <c r="H69" s="11">
-        <v>185478</v>
+        <v>121522</v>
       </c>
       <c r="I69" s="11">
-        <v>121522</v>
-      </c>
-      <c r="J69" s="11">
         <v>131791</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>17</v>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11">
+        <v>126791</v>
       </c>
       <c r="L69" s="11">
-        <v>126791</v>
+        <v>213892</v>
       </c>
       <c r="M69" s="11">
-        <v>213892</v>
+        <v>287378</v>
       </c>
       <c r="N69" s="11">
-        <v>287378</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>243946</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>32</v>
       </c>
@@ -2947,57 +2947,57 @@
       <c r="J70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>17</v>
+      <c r="K70" s="9">
+        <v>1586731</v>
       </c>
       <c r="L70" s="9">
-        <v>1586731</v>
+        <v>2587964</v>
       </c>
       <c r="M70" s="9">
-        <v>2587964</v>
+        <v>3300472</v>
       </c>
       <c r="N70" s="9">
-        <v>3300472</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3263985</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>1572230</v>
+        <v>1788320</v>
       </c>
       <c r="F71" s="13">
-        <v>1788320</v>
+        <v>1648559</v>
       </c>
       <c r="G71" s="13">
-        <v>1648559</v>
+        <v>1643120</v>
       </c>
       <c r="H71" s="13">
-        <v>1643120</v>
+        <v>1804624</v>
       </c>
       <c r="I71" s="13">
-        <v>1804624</v>
+        <v>2081045</v>
       </c>
       <c r="J71" s="13">
-        <v>2081045</v>
+        <v>1335131</v>
       </c>
       <c r="K71" s="13">
-        <v>1335131</v>
+        <v>1871508</v>
       </c>
       <c r="L71" s="13">
-        <v>1871508</v>
+        <v>3044623</v>
       </c>
       <c r="M71" s="13">
-        <v>3044623</v>
+        <v>3786661</v>
       </c>
       <c r="N71" s="13">
-        <v>3786661</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3652655</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3012,7 +3012,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3027,7 +3027,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3042,7 +3042,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3094,7 +3094,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>15</v>
       </c>
@@ -3103,37 +3103,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>2513602</v>
+        <v>3178034</v>
       </c>
       <c r="F77" s="9">
-        <v>3178034</v>
+        <v>2145591</v>
       </c>
       <c r="G77" s="9">
-        <v>2145591</v>
+        <v>2937568</v>
       </c>
       <c r="H77" s="9">
-        <v>2937568</v>
+        <v>3691985</v>
       </c>
       <c r="I77" s="9">
-        <v>3691985</v>
+        <v>3784293</v>
       </c>
       <c r="J77" s="9">
-        <v>3784293</v>
+        <v>3846022</v>
       </c>
       <c r="K77" s="9">
-        <v>3846022</v>
+        <v>3908458</v>
       </c>
       <c r="L77" s="9">
-        <v>3908458</v>
+        <v>6062225</v>
       </c>
       <c r="M77" s="9">
-        <v>6062225</v>
+        <v>6727105</v>
       </c>
       <c r="N77" s="9">
-        <v>6727105</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8091088</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>21</v>
       </c>
@@ -3181,26 +3181,26 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>1512276</v>
+        <v>1798293</v>
       </c>
       <c r="F79" s="9">
-        <v>1798293</v>
+        <v>1554128</v>
       </c>
       <c r="G79" s="9">
-        <v>1554128</v>
+        <v>1595186</v>
       </c>
       <c r="H79" s="9">
-        <v>1595186</v>
+        <v>1709631</v>
       </c>
       <c r="I79" s="9">
-        <v>1709631</v>
+        <v>2030287</v>
       </c>
       <c r="J79" s="9">
-        <v>2030287</v>
-      </c>
-      <c r="K79" s="9">
         <v>1494421</v>
       </c>
+      <c r="K79" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L79" s="9" t="s">
         <v>17</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>22</v>
       </c>
@@ -3220,37 +3220,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>183422794</v>
+        <v>161915000</v>
       </c>
       <c r="F80" s="11">
-        <v>161915000</v>
+        <v>36564246</v>
       </c>
       <c r="G80" s="11">
-        <v>36564246</v>
+        <v>165965278</v>
       </c>
       <c r="H80" s="11">
-        <v>165965278</v>
+        <v>311740331</v>
       </c>
       <c r="I80" s="11">
-        <v>311740331</v>
+        <v>10025907</v>
       </c>
       <c r="J80" s="11">
-        <v>10025907</v>
+        <v>-47905063</v>
       </c>
       <c r="K80" s="11">
-        <v>-47905063</v>
+        <v>60647887</v>
       </c>
       <c r="L80" s="11">
-        <v>60647887</v>
+        <v>-2000000</v>
       </c>
       <c r="M80" s="11">
-        <v>-2000000</v>
+        <v>380862069</v>
       </c>
       <c r="N80" s="11">
-        <v>380862069</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14938356</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>26</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>27</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3415,37 +3415,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>34241520</v>
+        <v>44288747</v>
       </c>
       <c r="F85" s="9">
-        <v>44288747</v>
+        <v>60907197</v>
       </c>
       <c r="G85" s="9">
-        <v>60907197</v>
+        <v>70955624</v>
       </c>
       <c r="H85" s="9">
-        <v>70955624</v>
+        <v>56234151</v>
       </c>
       <c r="I85" s="9">
-        <v>56234151</v>
+        <v>54890046</v>
       </c>
       <c r="J85" s="9">
-        <v>54890046</v>
+        <v>73190679</v>
       </c>
       <c r="K85" s="9">
-        <v>73190679</v>
+        <v>59359082</v>
       </c>
       <c r="L85" s="9">
-        <v>59359082</v>
+        <v>136410714</v>
       </c>
       <c r="M85" s="9">
-        <v>136410714</v>
+        <v>83273834</v>
       </c>
       <c r="N85" s="9">
-        <v>83273834</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112159080</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -3471,20 +3471,20 @@
       <c r="J86" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="11" t="s">
-        <v>17</v>
+      <c r="K86" s="11">
+        <v>1836790</v>
       </c>
       <c r="L86" s="11">
-        <v>1836790</v>
+        <v>3411136</v>
       </c>
       <c r="M86" s="11">
-        <v>3411136</v>
+        <v>2802439</v>
       </c>
       <c r="N86" s="11">
-        <v>2802439</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3982874</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3499,7 +3499,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3514,7 +3514,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3529,7 +3529,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>48</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3581,7 +3581,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>15</v>
       </c>
@@ -3590,37 +3590,37 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
-        <v>-27205</v>
+        <v>-32075</v>
       </c>
       <c r="F92" s="9">
-        <v>-32075</v>
+        <v>-41159</v>
       </c>
       <c r="G92" s="9">
-        <v>-41159</v>
+        <v>-42324</v>
       </c>
       <c r="H92" s="9">
-        <v>-42324</v>
+        <v>-78740</v>
       </c>
       <c r="I92" s="9">
-        <v>-78740</v>
+        <v>-79667</v>
       </c>
       <c r="J92" s="9">
-        <v>-79667</v>
+        <v>-82251</v>
       </c>
       <c r="K92" s="9">
-        <v>-82251</v>
+        <v>-87557</v>
       </c>
       <c r="L92" s="9">
-        <v>-87557</v>
+        <v>-70358</v>
       </c>
       <c r="M92" s="9">
-        <v>-70358</v>
+        <v>-85053</v>
       </c>
       <c r="N92" s="9">
-        <v>-85053</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-75311</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>20</v>
       </c>
@@ -3629,37 +3629,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>-9984</v>
+        <v>10299</v>
       </c>
       <c r="F93" s="11">
-        <v>10299</v>
-      </c>
-      <c r="G93" s="11">
         <v>-10236</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>17</v>
+      <c r="G93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-1357</v>
       </c>
       <c r="I93" s="11">
-        <v>-1357</v>
+        <v>-7296</v>
       </c>
       <c r="J93" s="11">
-        <v>-7296</v>
+        <v>-5131</v>
       </c>
       <c r="K93" s="11">
-        <v>-5131</v>
+        <v>0</v>
       </c>
       <c r="L93" s="11">
-        <v>0</v>
+        <v>-17540</v>
       </c>
       <c r="M93" s="11">
-        <v>-17540</v>
+        <v>17540</v>
       </c>
       <c r="N93" s="11">
-        <v>17540</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33116</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>21</v>
       </c>
@@ -3668,26 +3668,26 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
-        <v>-549504</v>
+        <v>-580621</v>
       </c>
       <c r="F94" s="9">
-        <v>-580621</v>
+        <v>-648999</v>
       </c>
       <c r="G94" s="9">
-        <v>-648999</v>
+        <v>-637544</v>
       </c>
       <c r="H94" s="9">
-        <v>-637544</v>
+        <v>-914870</v>
       </c>
       <c r="I94" s="9">
-        <v>-914870</v>
+        <v>-894921</v>
       </c>
       <c r="J94" s="9">
-        <v>-894921</v>
-      </c>
-      <c r="K94" s="9">
         <v>-954105</v>
       </c>
+      <c r="K94" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L94" s="9" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>22</v>
       </c>
@@ -3707,37 +3707,37 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>-18175</v>
+        <v>-12274</v>
       </c>
       <c r="F95" s="11">
-        <v>-12274</v>
+        <v>-18168</v>
       </c>
       <c r="G95" s="11">
-        <v>-18168</v>
+        <v>-12435</v>
       </c>
       <c r="H95" s="11">
-        <v>-12435</v>
+        <v>-31122</v>
       </c>
       <c r="I95" s="11">
-        <v>-31122</v>
+        <v>-11468</v>
       </c>
       <c r="J95" s="11">
-        <v>-11468</v>
+        <v>4656</v>
       </c>
       <c r="K95" s="11">
-        <v>4656</v>
+        <v>-15284</v>
       </c>
       <c r="L95" s="11">
-        <v>-15284</v>
+        <v>4172</v>
       </c>
       <c r="M95" s="11">
-        <v>4172</v>
+        <v>-31377</v>
       </c>
       <c r="N95" s="11">
-        <v>-31377</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8676</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>35</v>
       </c>
@@ -3751,8 +3751,8 @@
       <c r="F96" s="9">
         <v>0</v>
       </c>
-      <c r="G96" s="9">
-        <v>0</v>
+      <c r="G96" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>17</v>
@@ -3776,7 +3776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>25</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>26</v>
       </c>
@@ -3829,17 +3829,17 @@
       <c r="F98" s="9">
         <v>0</v>
       </c>
-      <c r="G98" s="9">
-        <v>0</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>17</v>
+      <c r="G98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="9">
+        <v>0</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="9">
+        <v>0</v>
       </c>
       <c r="K98" s="9">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>27</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>29</v>
       </c>
@@ -3902,37 +3902,37 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>-66674</v>
+        <v>-60208</v>
       </c>
       <c r="F100" s="9">
-        <v>-60208</v>
+        <v>-73445</v>
       </c>
       <c r="G100" s="9">
-        <v>-73445</v>
+        <v>-85793</v>
       </c>
       <c r="H100" s="9">
-        <v>-85793</v>
+        <v>-94015</v>
       </c>
       <c r="I100" s="9">
-        <v>-94015</v>
+        <v>-104646</v>
       </c>
       <c r="J100" s="9">
-        <v>-104646</v>
+        <v>-151097</v>
       </c>
       <c r="K100" s="9">
-        <v>-151097</v>
+        <v>-106329</v>
       </c>
       <c r="L100" s="9">
-        <v>-106329</v>
+        <v>-108956</v>
       </c>
       <c r="M100" s="9">
-        <v>-108956</v>
+        <v>-193289</v>
       </c>
       <c r="N100" s="9">
-        <v>-193289</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-200134</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>32</v>
       </c>
@@ -3958,57 +3958,57 @@
       <c r="J101" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>17</v>
+      <c r="K101" s="11">
+        <v>-912500</v>
       </c>
       <c r="L101" s="11">
-        <v>-912500</v>
+        <v>-1032115</v>
       </c>
       <c r="M101" s="11">
-        <v>-1032115</v>
+        <v>-1626126</v>
       </c>
       <c r="N101" s="11">
-        <v>-1626126</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1721425</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15">
-        <v>-671542</v>
+        <v>-674879</v>
       </c>
       <c r="F102" s="15">
-        <v>-674879</v>
+        <v>-792007</v>
       </c>
       <c r="G102" s="15">
-        <v>-792007</v>
+        <v>-778096</v>
       </c>
       <c r="H102" s="15">
-        <v>-778096</v>
+        <v>-1120104</v>
       </c>
       <c r="I102" s="15">
-        <v>-1120104</v>
+        <v>-1097998</v>
       </c>
       <c r="J102" s="15">
-        <v>-1097998</v>
+        <v>-1187928</v>
       </c>
       <c r="K102" s="15">
-        <v>-1187928</v>
+        <v>-1121670</v>
       </c>
       <c r="L102" s="15">
-        <v>-1121670</v>
+        <v>-1224797</v>
       </c>
       <c r="M102" s="15">
-        <v>-1224797</v>
+        <v>-1918305</v>
       </c>
       <c r="N102" s="15">
-        <v>-1918305</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2021310</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4023,7 +4023,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4038,7 +4038,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4053,7 +4053,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>49</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4105,7 +4105,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>15</v>
       </c>
@@ -4114,37 +4114,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>33129</v>
+        <v>44344</v>
       </c>
       <c r="F108" s="9">
-        <v>44344</v>
+        <v>12764</v>
       </c>
       <c r="G108" s="9">
-        <v>12764</v>
+        <v>27784</v>
       </c>
       <c r="H108" s="9">
-        <v>27784</v>
+        <v>57845</v>
       </c>
       <c r="I108" s="9">
-        <v>57845</v>
+        <v>65419</v>
       </c>
       <c r="J108" s="9">
-        <v>65419</v>
+        <v>76882</v>
       </c>
       <c r="K108" s="9">
-        <v>76882</v>
+        <v>48899</v>
       </c>
       <c r="L108" s="9">
-        <v>48899</v>
+        <v>155763</v>
       </c>
       <c r="M108" s="9">
-        <v>155763</v>
+        <v>108432</v>
       </c>
       <c r="N108" s="9">
-        <v>108432</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>20</v>
       </c>
@@ -4153,37 +4153,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>-3723</v>
+        <v>3382</v>
       </c>
       <c r="F109" s="11">
-        <v>3382</v>
-      </c>
-      <c r="G109" s="11">
         <v>5663</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>17</v>
+      <c r="G109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="11">
+        <v>349</v>
       </c>
       <c r="I109" s="11">
-        <v>349</v>
+        <v>1816</v>
       </c>
       <c r="J109" s="11">
-        <v>1816</v>
+        <v>4596</v>
       </c>
       <c r="K109" s="11">
-        <v>4596</v>
+        <v>0</v>
       </c>
       <c r="L109" s="11">
-        <v>0</v>
+        <v>-776</v>
       </c>
       <c r="M109" s="11">
-        <v>-776</v>
+        <v>776</v>
       </c>
       <c r="N109" s="11">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5684</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>21</v>
       </c>
@@ -4192,26 +4192,26 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>805296</v>
+        <v>995225</v>
       </c>
       <c r="F110" s="9">
-        <v>995225</v>
+        <v>794557</v>
       </c>
       <c r="G110" s="9">
-        <v>794557</v>
+        <v>726091</v>
       </c>
       <c r="H110" s="9">
-        <v>726091</v>
+        <v>518218</v>
       </c>
       <c r="I110" s="9">
-        <v>518218</v>
+        <v>896265</v>
       </c>
       <c r="J110" s="9">
-        <v>896265</v>
-      </c>
-      <c r="K110" s="9">
         <v>381026</v>
       </c>
+      <c r="K110" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L110" s="9" t="s">
         <v>17</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>22</v>
       </c>
@@ -4231,37 +4231,37 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>31716</v>
+        <v>20109</v>
       </c>
       <c r="F111" s="11">
-        <v>20109</v>
+        <v>-11623</v>
       </c>
       <c r="G111" s="11">
-        <v>-11623</v>
+        <v>11464</v>
       </c>
       <c r="H111" s="11">
-        <v>11464</v>
+        <v>81728</v>
       </c>
       <c r="I111" s="11">
-        <v>81728</v>
+        <v>-7598</v>
       </c>
       <c r="J111" s="11">
-        <v>-7598</v>
+        <v>-2913</v>
       </c>
       <c r="K111" s="11">
-        <v>-2913</v>
+        <v>6246</v>
       </c>
       <c r="L111" s="11">
-        <v>6246</v>
+        <v>4054</v>
       </c>
       <c r="M111" s="11">
-        <v>4054</v>
+        <v>-9287</v>
       </c>
       <c r="N111" s="11">
-        <v>-9287</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>35</v>
       </c>
@@ -4275,8 +4275,8 @@
       <c r="F112" s="9">
         <v>0</v>
       </c>
-      <c r="G112" s="9">
-        <v>0</v>
+      <c r="G112" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>17</v>
@@ -4300,7 +4300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>25</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>26</v>
       </c>
@@ -4353,17 +4353,17 @@
       <c r="F114" s="9">
         <v>0</v>
       </c>
-      <c r="G114" s="9">
-        <v>0</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114" s="9">
-        <v>0</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>17</v>
+      <c r="G114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="9">
+        <v>0</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="9">
+        <v>0</v>
       </c>
       <c r="K114" s="9">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>27</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>29</v>
       </c>
@@ -4426,37 +4426,37 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
-        <v>34270</v>
+        <v>50381</v>
       </c>
       <c r="F116" s="9">
-        <v>50381</v>
+        <v>55191</v>
       </c>
       <c r="G116" s="9">
-        <v>55191</v>
+        <v>99685</v>
       </c>
       <c r="H116" s="9">
-        <v>99685</v>
+        <v>27507</v>
       </c>
       <c r="I116" s="9">
-        <v>27507</v>
+        <v>27145</v>
       </c>
       <c r="J116" s="9">
-        <v>27145</v>
+        <v>54642</v>
       </c>
       <c r="K116" s="9">
-        <v>54642</v>
+        <v>20462</v>
       </c>
       <c r="L116" s="9">
-        <v>20462</v>
+        <v>104936</v>
       </c>
       <c r="M116" s="9">
-        <v>104936</v>
+        <v>94089</v>
       </c>
       <c r="N116" s="9">
-        <v>94089</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>32</v>
       </c>
@@ -4482,54 +4482,54 @@
       <c r="J117" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K117" s="11" t="s">
-        <v>17</v>
+      <c r="K117" s="11">
+        <v>674231</v>
       </c>
       <c r="L117" s="11">
-        <v>674231</v>
+        <v>1555849</v>
       </c>
       <c r="M117" s="11">
-        <v>1555849</v>
+        <v>1674346</v>
       </c>
       <c r="N117" s="11">
-        <v>1674346</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1542560</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15">
-        <v>900688</v>
+        <v>1113441</v>
       </c>
       <c r="F118" s="15">
-        <v>1113441</v>
+        <v>856552</v>
       </c>
       <c r="G118" s="15">
-        <v>856552</v>
+        <v>865024</v>
       </c>
       <c r="H118" s="15">
-        <v>865024</v>
+        <v>685647</v>
       </c>
       <c r="I118" s="15">
-        <v>685647</v>
+        <v>983047</v>
       </c>
       <c r="J118" s="15">
-        <v>983047</v>
+        <v>514233</v>
       </c>
       <c r="K118" s="15">
-        <v>514233</v>
+        <v>749838</v>
       </c>
       <c r="L118" s="15">
-        <v>749838</v>
+        <v>1819826</v>
       </c>
       <c r="M118" s="15">
-        <v>1819826</v>
+        <v>1868356</v>
       </c>
       <c r="N118" s="15">
-        <v>1868356</v>
+        <v>1631345</v>
       </c>
     </row>
   </sheetData>
